--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="7152"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="16260" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Defects</t>
   </si>
@@ -42,14 +42,27 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Ssytem crashed when duplicate email was provided for new user</t>
+    <t>System crashed when duplicate email was provided for new user</t>
+  </si>
+  <si>
+    <t>System returning row number instead of emoployee number in ProjectInsert.PHP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,10 +88,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -86,8 +100,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,28 +405,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>41554</v>
       </c>
@@ -438,15 +456,50 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.25</v>
       </c>
       <c r="F3" s="2">
         <v>41554</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -460,7 +513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -472,7 +525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -92,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -103,6 +103,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -408,7 +409,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +477,15 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41572</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Defects</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>System returning row number instead of emoployee number in ProjectInsert.PHP</t>
+  </si>
+  <si>
+    <t>Employee Asign to project bug</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -103,7 +106,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -409,25 +415,25 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>41554</v>
       </c>
@@ -467,11 +473,11 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>41572</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -488,7 +494,24 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>41572</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41572</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Defects</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Employee Asign to project bug</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,26 +93,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -415,17 +443,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -434,105 +462,116 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>41554</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>0.5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>0.25</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>41554</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>41572</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>0.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <v>41572</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>41572</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>0.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>0.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <v>41572</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(D3:D5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="11">
+        <f>SUM(E3:E5)</f>
+        <v>1.25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Defects</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Update Sprint does not save selected Project</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,22 +544,39 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>41587</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>41587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <f>SUM(D3:D5)</f>
         <v>1.5</v>
       </c>
-      <c r="E6" s="11">
-        <f>SUM(E3:E5)</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="E7" s="11">
+        <f>SUM(E3:E6)</f>
+        <v>1.75</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -572,6 +592,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Defects</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Update Sprint does not save selected Project</t>
+  </si>
+  <si>
+    <t>Sprint initial story points not recording correctly</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,23 +567,34 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>41596</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <f>SUM(D3:D5)</f>
         <v>1.5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <f>SUM(E3:E6)</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
@@ -595,6 +609,9 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Defects</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Sprint initial story points not recording correctly</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Name Not changing on all files.  CompanyProperties business name should be on all headers not hard coded beter software</t>
+  </si>
+  <si>
+    <t>Remove Project list slider. Not used effectivly no longer makes sense.</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,44 +586,94 @@
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="8">
         <v>0.5</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>41604</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>41604</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D12" s="11">
         <f>SUM(D3:D5)</f>
         <v>1.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E12" s="11">
         <f>SUM(E3:E6)</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="16260" windowHeight="7155"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="16260" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Defects</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Sprint initial story points not recording correctly</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>Jose</t>
   </si>
   <si>
     <t>Name Not changing on all files.  CompanyProperties business name should be on all headers not hard coded beter software</t>
@@ -460,21 +454,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +533,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>41572</v>
       </c>
@@ -587,47 +581,59 @@
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8">
         <v>0.5</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="9">
+        <v>41609</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>41604</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="9">
+        <v>41609</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>41604</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="9">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -635,7 +641,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -643,7 +649,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="10" t="s">
         <v>11</v>
@@ -653,26 +659,26 @@
         <v>1.5</v>
       </c>
       <c r="E12" s="11">
-        <f>SUM(E3:E6)</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(E3:E9)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -687,7 +693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,7 +705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bug Tracking/Bug Tracking System.xlsx
+++ b/Bug Tracking/Bug Tracking System.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>41596</v>
       </c>
